--- a/medicine/Sexualité et sexologie/Site_de_rencontres/Site_de_rencontres.xlsx
+++ b/medicine/Sexualité et sexologie/Site_de_rencontres/Site_de_rencontres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un site de rencontres est un site web qui permet aux individus d'entrer en contact et de communiquer afin de développer une relation plus ou moins longue de nature sentimentale, érotique ou amicale.
 L'accès à ces sites demande souvent de fournir des informations personnelles telles que l'âge, le genre et le lieu géographique.
-Les sites de rencontres fonctionnent en quelque sorte comme un marché[1] : ils offrent un espace permettant de « prospecter » et de « se vendre » dans le but de trouver la personne avec qui développer une relation. Cet espace permet d'y publier des photos et de consulter celles des autres. Les échanges peuvent s'y effectuer par des services internes de télécommunication : la messagerie, le chat avec ou sans échange audio (voice over IP) ou vidéo (webcam). Un service de matchmaking (mise en relation par affinités) peut également être proposé.
+Les sites de rencontres fonctionnent en quelque sorte comme un marché : ils offrent un espace permettant de « prospecter » et de « se vendre » dans le but de trouver la personne avec qui développer une relation. Cet espace permet d'y publier des photos et de consulter celles des autres. Les échanges peuvent s'y effectuer par des services internes de télécommunication : la messagerie, le chat avec ou sans échange audio (voice over IP) ou vidéo (webcam). Un service de matchmaking (mise en relation par affinités) peut également être proposé.
 Un bon nombre de sites de rencontres demandent un abonnement mensuel payant. Certains sont totalement gratuits. D'autres sont gratuits mais proposent des fonctionnalités supplémentaires payantes (modèle freemium).
 Un site de rencontre peut être généraliste ou spécialisé pour un type de relation (amoureuse, érotique, amicale) ou un type de membres (appartenance religieuse ou ethnique, orientation sexuelle, tranche d'âge).
 </t>
@@ -515,99 +527,11 @@
           <t>Des sites généralistes et des sites spécialisés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sites de rencontres connus du grand public sont souvent les sites généralistes, même s’il existe d'autres sites qui, dans une logique de stratégie de niche, se sont spécialisés dans l’échangisme, l’infidélité, l’homosexualité ou encore les musulmans, ou les afro-descendants.
-Sites de rencontres par type de relation recherchée
-Trois types de relation sont recherchés sur les sites de rencontres : la relation amoureuse, la relation sexuelle ou la relation amicale. Dans cette dernière catégorie, le leader en France est OnVaSortir![2], et Meetup.com aux États-Unis[3].
-Selon une étude menée par le CSA, 62 % des personnes inscrites sur des sites de rencontres en ligne recherchent des aventures sans lendemain alors que seuls 35 % désirent une relation sérieuse[4].
-Sites de rencontres selon l'appartenance communautaire
-Ces sites ont pour cible ceux qui recherchent spécifiquement un partenaire chrétien ou plus spécifiquement pour catholique, protestant, mormon/LDS, adventiste, Témoin de Jéhovah ; musulman, ou plus particulièrement chiite ; juif.
-Il existe par ailleurs des sites ciblés pour les personnes d'origine africaine, martiniquaise, d'origine asiatique, latino-américain, portugaise[5] ou encore russe : dans ce dernier cas de figure, il convient de distinguer les sites pour rencontres entre Russes des sites destinés aux personnes non slaves recherchant une femme d'Europe de l'Est.
-Sites de rencontres par affinités
-La rencontre par affinités (matchmaking) suppose que deux personnes doivent partager des affinités si elles envisagent une relation sérieuse et durable. Si les sites de rencontres généralistes proposent parfois à ses membres une liste de célibataires a priori compatibles au vu de ce qu'ils ont rempli dans leur profil (ASV pour Age-Sexe-Ville, centres d'intérêts etc.), les sites de rencontres par affinités proposent une étude de compatibilité plus approfondie.
-Sites de rencontres par compatibilité psychologique
-Les sites de rencontres par affinités appliquent ordinairement les théories sur la personnalité et sur la compatibilité des personnes (religion, culture, goûts, aspirations etc.) pour proposer des rencontres[6].
-Le service de matchmaking offre à ses clients des tests de la personnalité, parfois d'une centaine de pages, et suggère une liste de membres avec lesquels ils seraient susceptibles de former un couple harmonieux.
-Certains sites de rencontres s'appuient sur les travaux du psychologue allemand Hugo Schmale (de), ou encore de l'anthropologue américaine Helen Fisher. D'après cette dernière, il existerait schématiquement quatre types de personnalité : les aventuriers, les constructeurs, les dirigeants et les négociateurs. Selon les études menées par la scientifique, les couples susceptibles de bien fonctionner seraient les couples aventurier-aventurier, constructeur-constructeur et dirigeant-négociateur (ces deux profils se complétant)[7].
-Sites de rencontres par affinités politiques
-Ces sites sont spécialisés pour les personnes de gauche, de droite[8] ou écologistes[9]. En Amérique du Nord, il existe également des sites de rencontres destinés aux libertariens[10], pour objectivistes[11], ou encore militants pro-Trump.
-Sites de rencontres par affinités musicales
-Certains sites allient les attributs d'un service de musique en ligne et d'un site de rencontres[12],[13]. Les utilisateurs peuvent identifier et contacter ceux qui écoutent les mêmes titres qu'eux. Y est également proposé un service de matchmaking : les inscrits peuvent recevoir une liste de célibataires avec le pourcentage de compatibilité calculée en fonction des musiques sélectionnées.
-Dans la communauté francophone occidentale (France, Benelux, Suisse et Québec), d'autres sites se démarquent également, proposant des rencontres interactives entre passionnés d'un même style musical[14] ou vestimentaire.
-Sites de rencontres selon l'état d'esprit
-Il existe des sites de rencontres spécialisés par sous-culture ou centre d'intérêt : rockers, metalleux, punks, gothiques ou emos[15],[16],[17],[18],[19], clubbers, hipsters[20], tatoués, hippies[21], yuppies[22],[23], geeks[24], végétariens[25],[26], naturistes[27], curieux[28],[29],[30],[31], amateurs d'équitation[32], de golf, de fitness, de lecture[33], motards[34],[35], cyclistes, joueurs de jeu vidéo[36], ou encore amoureux des bêtes[37],[38],[39]. Ce dernIer type est à distinguer des sites de rencontres pour animaux[40].
-Sites de rencontres selon la compatibilité génétique
-Ces sites[41],[42] utilisent l'ADN pour proposer des rencontres.
-Sites de rencontres selon la compatibilité astrale
-Il s'agit des sites de rencontres qui fondent la mise en relation des partenaires sur l'astrologie occidentale, chinoise ou tibétaine. Ces sites ont peut-être eu du succès à leur début, mais aujourd'hui, la majorité a disparu ou ils sont très peu visités et entretenus.
-Sites de rencontres selon le niveau d'influence personnelle en ligne
-Un site américain [43],[44] fonde quant à lui son matchmaking sur le « score Klout », un indicateur de l'influence d'une personne sur les réseaux sociaux.
-Les sites de rencontres selon la situation sociale
-Situation professionnelle
-Il existe des sites de rencontres par profession, par exemple pour les marins[45], policiers ou militaires[25], pompiers, personnel navigant commercial (PNC), professionnels de santé[46], enseignants[47], agriculteurs et fermiers, qu'ils soient cultivateurs ou éleveurs, comme les vachers et les cow-boys[48],[49].
-Certains sites s'adressent aux étudiants et aux anciens élèves d'universités[50].
-Il existe des sites qui permettent d'entretenir une correspondance avec une personne en prison[37],[51].
-Niveau social
-Sites de rencontres destinés aux diplômés de l’enseignement supérieur[52],[53],[54],[55],[56] ; ou exclusivement des grandes écoles[57] ; aux riches et aux canons [58] où sont mis en relation des femmes attrayantes avec des hommes gagnant plus de 100 000 € par an[59]. Aux États-Unis, un site s'adresse aux personnes très aisées et dit « compter parmi ses membres des PDG, des athlètes de premier niveau, des docteurs, des avocats, des investisseurs, des entrepreneurs, des reines de beauté, des fitness models et des célébrités hollywoodiennes »[60] ; aux femmes qui recherchent une sécurité financière : un site « interdit l'inscription aux hommes gagnant moins de 2000 € (fiche de payes et avis d'imposition à l'appui) et où c'est aux femmes de payer l'abonnement[61] ».
-Il convient de bien distinguer les sites de rencontres élitistes des sites d'agences matrimoniales élitistes ainsi que des sites de réseautage social élitistes[62].
-Il convient également de discerner les sites de rencontres élitistes des sites de rencontres « haut de gamme »[63]. Sur ces sites, où par ailleurs l'inscription fonctionne par cooptation, la sélection à l'entrée porte moins sur la situation sociale que sur le sérieux des célibataires dans leur démarche de recherche.
-Statut conjugal
-Si les sites généralistes sont destinés aux célibataires, d'autres sont destinés aux personnes mariées[64],[65], divorcées avec enfants[38] ou veuves[66],[67],[68].
-Certains sites de rencontres sont par ailleurs destinés aux polyamoureux[69],[70],[71] ou aux polygames[72] (voir également les sites de rencontres pour Musulmans ou Mormons).
-La volonté de se marier et/ou de fonder une famille est mis en avant principalement sur les sites de rencontres spécialisés par communauté religieuse, voire par caste (en Inde). Le mariage est cependant également mis en avant sur des sites de rencontre avec une femme d'Europe de l'Est ou sur des sites de rencontres chinois. Notons en outre que certains sites s'adresse en Inde à ceux qui veulent se marier sans passer par le système de dot.
-Certains sites sont destinés aux « sans enfant par choix[73] ».
-Il existe aussi des sites de rencontres adressés aux personnes à la recherche d'un donneur de spermes/d’ovocyte (voir coparentalité, homoparentalité)[74].
-Les sites de rencontres selon la sexualité
-De nombreux sites se spécialisent dans un certain type de sexualité. Il en existe selon le type d’attirance (LGBT[75],[76], bears, chubs, asexuels, platoniques[77],[78],[79]) ou le type de pratique sexuelle (libertinage : échangisme, mélangisme ou triolisme, etc[80] ; BDSM ou fétichistes, jusqu’au fétichisme des couches aux États-Unis[81]).
-La différence d’âge entre les partenaires potentiels est également un critère : il existe des sites pour femmes cougars[82] ou pour leurs équivalents homme[83].
-Des sites dédiés aux rencontres tarifées non professionnelles existent notamment en France[84],[85] et aux États-Unis[86],[87],[88],[89],[90]. On parle de « sugar baby » pour les personnes qui offrent ce type de service à des hommes, qui eux sont désignés sous le terme de « sugar daddy ». Les hommes qui offrent ce type de service à des femmes sont des gigolos[91], et celles-ci sont des « sugar mama[92] ».
-Les différents types de critères peuvent également se combiner : il existe par exemple des sites pour femmes cougars lesbiennes[93] et d’autres pour sugar daddies gays ou sugar mamas lesbiennes[94].
-Il existe également en France des sites pour machistes[95], et d’autres pour personnes pucelles[96]. Enfin, il existe des sites féministes, comme Bumble[97], ou AdopteUnMec.com en France[98],[99],[100].
-Les sites de rencontres sur le critère physique
-Il existe des sites spécialisés, que l'on soit beau[101] ; laid[102],[103],[81] ; maigre ; gros[104] ; BBW[105] ; BBW &amp; BHM[106] ; SSBBW[107] ; petit[108] ; grand ; poilu.
-Aux États-Unis et au Royaume-Uni, un site s'adresse à ceux qui ont un pénis de plus de 17,5 cm[109],[110].
-Un autre site de rencontres propose quant à lui de trouver le sosie de son ex[111],[112],[113].
-Les sites de rencontres pour personnes souffrant d'une maladie ou d'un handicap
-Certains sites sont spécialisés dans les rencontres pour les personnes porteuses d'une MST[114],[115],[116].
-D'autres sites sont destinés aux personnes handicapées[117], paraplégiques, amputées, sourds et malentendants, personnes souffrant d'allergies[118].
-Il existe également des sites de rencontres destinées aux personnes souffrant de troubles mentaux, comme la schizophrénie, le trouble bipolaire, les troubles obsessionnels compulsifs (TOC), les troubles de la personnalité, les troubles de stress post-traumatique (TSPT), les troubles dissociatifs ou les troubles des comportements alimentaires (TCA)[119], l'autisme, le syndrome d'Asperger.
-Les sites de rencontres par tranche d'âge
-Des sites sont spécialisés dans les rencontres pour adolescents[120] d'autres pour seniors.
-Les sites de rencontres par région géographique
-Certains sites se spécialisent par région géographique.
-Les sites de rencontres par mode ou lieu de rencontre
-Les sites de rencontres se différencient selon le mode de rencontre auquel ils invitent les utilisateurs. Il peut y avoir comme préalable à la rencontre une première prise de contact en ligne (online dating, mobile dating, sites de rencontres épistolaires[121], card dating, virtual darting) ou pas (slow dating, group dating, speed dating, blind dating). La fixation du rendez-vous peut-être directe (online dating classique, mobile dating) ou intermédiée (rencontre coachée, online matchmaking, speed dating, blind dating, slow dating, group dating, charity dating). D’autres sites se spécialisent par région géographique. Un site américain s'adresse ainsi à ceux qui souhaitent faire des rencontres à l'aéroport[122].
-Online dating classique
-Dans son acception la plus répandue, le site de rencontre renvoie à l’online dating : sur son ordinateur, l'utilisateur inscrit sur le site recherche des profils susceptibles de lui plaire, établit un premier contact, qui, s'il est concluant, débouche sur la fixation d'un rendez-vous.
-Mobile dating
-Après le développement du Web participatif dans les années 2000, c'est l'essor du Web mobile dans les années 2010 qui est venu stimuler le marché de la rencontre. Les sites de rencontres traditionnels proposent une version mobile de leur plateforme ou une application à télécharger, à l'instar des nouveaux acteurs exclusivement sur smartphone[123] (sportifs). Le mobile dating offre comme fonctionnalité l'échange de messages instantanés et de photos mais aussi et surtout la géolocalisation (en) afin que les célibataires à proximité puissent se mettre en relation[124].
-Online matchmaking
-À la différence d'un site de rencontre classique, un service de matchmaking est proposé en France : les utilisateurs répondent à un questionnaire et se voient proposer un ensemble de profils supposés leur correspondre. Ces sites de rencontres par affinité se distinguent des sites d'agence matrimoniale, où cette dernière prend le soin de rencontrer chacun des célibataires avant de les mettre en relation. Notons néanmoins que la distinction n'est pas toujours évidente : sur le site de rencontres américain Tawkify.com, les inscrits ne peuvent pas communiquer directement : c'est le site qui les met en relation en fonction d'affinités supposées.
-Rencontre coachée
-Les utilisateurs de sites de rencontres peuvent faire appel aux services d'un « dating assistant (en) »[125],[126], PersonalDatingAssistants.com[127],[128],[129],[130],[131],[125] : les services proposés vont de l'identification du site de rencontres où s'inscrire à l'obtention de rendez-vous en passant par la gestion du profil : choix du pseudo, réalisation et sélection des photos, rédaction du message d'accroche et de l'annonce etc. Aux États-Unis, un site de rencontres permet de contrôler si la personne rencontrée a un casier judiciaire[132].
-Au Royaume-Uni, le site MySingleFriend.com (en)[133],[134] permet que la rencontre coachée soit initiée par un proche (parent, ami, collègue) du célibataire.
-Par ailleurs, les sites comme QuoiMaGueule.com[135],[136] permettent aux internautes de soumettre leurs photos à la notation des visiteurs. Une étude menée par le Journal of Business and Psychology montre que la photo est déterminante dans l'évaluation de la personne : l'« effet de halo » désigne l'attribution de qualités à quelqu'un seulement sur la base de son apparence physique[137]. S'appuyant sur un échantillon statistique de plusieurs millions d'utilisateurs, Christian Rudder, cofondateur du site OKCupid.com, met en avant que les profils ayant le plus de succès sont ceux dont la photo a été réalisée à l'aide d'un appareil professionnel, sans flash, avec une faible profondeur de champ et au lever ou au coucher du soleil[138].
-Speed dating
-Le speed dating consiste à faire se rencontrer des personnes préalablement sélectionnées selon des critères spécifiques pour une durée courte, typiquement sept rendez-vous de sept minutes chacun[139],[140],[141],[142].
-Blind dating
-L'agence organise une « rencontre à l'aveugle » : les protagonistes, présélectionnés selon leur compatibilité supposée, ne se connaissent pas[143],[144],[145]. Les rencontres de ce type peuvent avoir lieu en groupe, autour d'un repas par exemple (aux États-Unis, 8at8.com organise des dîners pour quatre femmes et quatre hommes partageant des points communs[38]).
-Group dating
-Certains sites au Royaume-Uni, en France[146] et en Italie[147] sont spécialisés dans le group dating, une rencontre à l'aveugle entre groupes de célibataires. Ce mode de rencontre, particulièrement développé au Japon, s'apparente à un mélange de blind dating (rencontre entre célibataires) et de slow dating (sortie en groupe).
-Virtual dating
-Sur le modèle des univers virtuels destinés aux joueurs de jeu vidéo, des applications permettent aux célibataires de s'incarner dans un avatar et de « se rencontrer » dans un espace virtuel. Le professeur Michael I. Norton a affirmé au cours des années 2000 que la rencontre virtuelle pourrait apporter un plus dans l'évaluation de sa compatibilité avec l'autre[148]. En France, citons par exemple l'application Come in My World d'Orange, présentée comme un mélange du site de rencontres Meetic et du métavers Second Life[149],[150]. Mentionnons par ailleurs certains sites de jeux de rencontres (« dating simulations ») qui revendiquent offrir à leurs joueurs la possibilité de faire des rencontres réelles.
-Une carte pour un rendez-vous
-Des sites comme Cheek'd (en) et FlipMe (en) aux États-Unis fournissent à l'abonné un ensemble de petites cartes noires qu'il passe ou fait passer à l'élu de son cœur en soirée, dans un café, au restaurant où dans les transports en commun. Cette personne, à l'aide de l'identifiant inscrit sur la carte, va pouvoir consulter en ligne le message qui lui est adressé (invitation à un rendez-vous, déclaration). Ce mode d'approche présente l'avantage pour l'abonné de ne pas être cantonné dans ses choix aux personnes inscrites sur le site de rencontres[151].
-Charity dating
-Sur le modèle du charity dating (en) où une célébrité vend aux enchères caritatives une rencontre avec elle[152],[153], le site biélorusse Maesens (ru) permet de vendre un rendez-vous au plus offrant ; l'argent récolté est ensuite reversé à des associations caritatives[154],[155].
-Slow dating
-On[Qui ?] peut préférer prendre le temps de se rencontrer en face-à-face plutôt que derrière un ordinateur. Le « slow dating » est un rétronyme utilisé pour désigner le mode de rencontre auquel invitent les sites proposant d'organiser et/ou de participer à des sorties, événements, activités en groupe, qu'il s'agisse d'activités culturelles, sportives ou de loisirs[2]. Les « sites de slow dating » peuvent être généralistes (toutes sorties confondues) ou spécialisés dans un type de sortie/activité (sport, restaurant[156],[157],[158], voyage[159],[160],[161],[162],[163],[164], etc.) ; de plus, ils peuvent être orientés rencontres amicales[165],[166],[167] (comme OnVaSortir.com) ou orientés rencontres amoureuses. Ce mode de rencontre est proposée également par des applications comme Once[168].
-OnVaSortir.com (OVS) se présente comme « le site des sorties amicales et rencontres entre amis dans votre ville ». Avec un grand nombre de types de sortie proposée (exposition, concert, théâtre, randonnée[169], sport[170],[123], restaurant, soirée dansante, karaoké, café philo etc.), OVS est le leader des sites de sorties amicales en France, devant MeetUp.com (qui permet également d'organiser des rencontres professionnelles)[2]. Le leader aux États-Unis est MeetUp.com[171].
-Les sites de sorties peuvent par ailleurs être orientés rencontres amoureuses[172],[173],[174]; certains sites au Royaume-Uni ou aux États-Unis permettent aux célibataires de se rencontrer à partir d’une envie de sortie commune[175],[176],[177].
-À partir des années 2000 se sont développés les sites spécialisés dans le « service d'hébergement », aussi appelé « échange d'hospitalité » : CouchSurfing.org[178],[179], BeWelcome.org[180], Servas.org[181]. Certains mettent l'accent sur les échanges interculturels : HospitalityClub.org[181] et FriendShipForce.org[182],[183], tandis que d'autres sont spécialisés pour les familles, mais aussi pour les cyclistes ou les espérantophones. D'autres sites permettent aux touristes de travailler en échange du gîte et du couvert. Généralement le bénévolat s'effectue dans les fermes, on parle alors de WWoofing.
-La rencontre d'inconnus par ces sites implique une exposition à des dangers plus ou moins importants.
-Pratique de langues étrangères
-Un site d'échange linguistique permet de trouver des correspondants pour s'améliorer en langues étrangères et trouver de nouveaux amis[184]. On peut s'y inscrire également pour participer à des soirées polyglottes[185]. Un autre site s'adresse quant à lui à tous ceux à la recherche de nouvelles rencontres dans le monde entier[186].
 </t>
         </is>
       </c>
@@ -633,25 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire par pays</t>
+          <t>Des sites généralistes et des sites spécialisés</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">États-Unis
-Match.com, le pionnier de la rencontre en ligne, voit le jour en 1995[187]. Il rachète NetClub.fr en 2007[188] puis Meetic en 2011[189] et est aujourd'hui le leader du marché dans le monde[190].
-France
-Le marché de la rencontre entre célibataires a été marqué par le développement d'un bon nombre d'agences matrimoniales dès le début du XIXe siècle[191]. Dans les années 1960, d'autres modes de rencontres ont parallèlement gagné leurs lettres de noblesse : il s'agit des petites annonces. Les plus notoires étaient celles du Chasseur Français. Le Minitel au début des années 1980 donna les prémices de ce que sont aujourd'hui les sites de rencontres sur Internet, média qui a commencé à être utilisé par le grand public à partir de 1994[192],[193].
-Le pionnier des sites de rencontres sentimentales et érotiques en France est NetClub.fr, fondé en 1997[194], suivi par Amoureux.com, fondé en 1998. La même année, deux acteurs majeurs du minitel rose se transposent sur le Web : Cum et Ulla[195].
-Il faudra néanmoins attendre les années 2000, marquées par l'avènement du Web 2.0, pour que les sites de rencontres fassent leur percée dans la vie des Français[196].
-En 2001, deux sites généralistes voient le jour : EasyFlirt.fr, mais aussi et surtout Meetic.fr, qui, à coup d'investissements publicitaires massifs et de partenariats dans toute l'Europe, va dominer le marché sur tout le continent[197] et entrer en bourse quatre ans après sa création[198].
-La seconde moitié des années 2000 est marquée par deux tendances : d'une part, l'essor des « sites de rencontres par affinités » (matchmaking) : Be2.fr et PointsCommuns.com en 2004, l'allemand Parship.fr en 2005[199], AttractiveWorld.com en 2007, Meetic Affinity en 2008, l'allemand eDarling en 2009[200] ; d'autre part, l'essor des sites communautaires : Theotokos.fr et Mektoube.fr en 2006, Blacklub en 2007, JDate en 2008[201], InChallah.com en 2010 ou encore GeekMeMore.com en 2011.
-Une nouvelle tendance se dessine au début des années 2010 : à la suite du succès du site de sorties en groupe OnVaSortir!, certains sites de rencontres se sont lancés dans l'organisation de sorties entre célibataires (parfois appelée slow dating)[2],[202] : Meetic.fr[203], qui a d'ailleurs racheté PastasParty.com en 2013[158], MeetSerious.com (2012)[157] ou encore Bœuf-Lovers.com (2013)[156].
-En outre, parallèlement au développement des sites de rencontres payants (Meetic.fr, AdopteUnMec.com, eDarling.fr), se sont multipliés les « sites de rencontres gratuits »[204].
-De plus, dès le début du développement des sites de rencontres amoureuses se sont multipliés les sites de rencontres érotiques : Adult FriendFinder (en) ou Gleeden.com pour les sites adultères.
-En 2014, les 18 millions de célibataires français recensés par l'INSEE sont la cible de plus de 2 000 sites de rencontres généralistes ou spécialisés sur un marché estimé à environ 200 millions de chiffre d'affaires[205],[206].
-Pour Daphné Marnat et Barbara Cassin, « l'existence et le succès des sites de rencontres reflètent une société de solitaires, seuls face à la constitution de leur réseau social et amoureux, vivant dans un espace temps limité où l'efficacité règne en maître : pas de temps à consacrer à une drague hasardeuse dans des bars devenus trop chers. Pas envie de se prendre une claque ou un vent, d'ailleurs on a même perdu l'habitude de regarder autour de soi : « J'ai découvert mon voisin sur CelibParis, et vous ? » (slogan-affichage dans le métro de celibparis.com). Ces sites montrent combien la consommation a pénétré les sphères les plus intimes : les rapports aux autres, avec la nécessité de se constituer immédiatement un cercle de relations important dès que l'on arrive quelque part, et le rapport à l'autre, avec le couple comme deux partenaires de consommation qui s'associent sur des loisirs partagés. Et quand on va jusqu'au bout, avec un cynisme de bon ton, on affiche que l'autre est un objet de consommation, mais en tenant compte de l'époque qui a renversé les rôles puisque c'est la femme qui est devenue le client, voire le prédateur : « au supermarché des rencontres, les femmes font de bonnes affaires » dit AdopteUnMec.com[207] ».
-Une enquête IFOP révèle qu'en 2018, 26 % des Français déclarent s’être déjà inscrits au moins une fois sur un site de rencontre ; contrairement à ce que la plupart des sites présentent dans leurs publicités, il reste encore difficile de rencontrer quelqu’un en vrai via ce genre de sites (seulement 57 % des sondés déclarent y être parvenus) ; la réalisation de rencontres amoureuses (20 % déclarent avoir eu à la fois des relations amoureuses et sexuelles) n’empêche pas pour autant une certaine banalisation des « coups d’un soir » (62 % déclarent avoir eu « une aventure sans lendemain »)[208].
+          <t>Sites de rencontres par type de relation recherchée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois types de relation sont recherchés sur les sites de rencontres : la relation amoureuse, la relation sexuelle ou la relation amicale. Dans cette dernière catégorie, le leader en France est OnVaSortir!, et Meetup.com aux États-Unis.
+Selon une étude menée par le CSA, 62 % des personnes inscrites sur des sites de rencontres en ligne recherchent des aventures sans lendemain alors que seuls 35 % désirent une relation sérieuse.
 </t>
         </is>
       </c>
@@ -677,46 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Abus et escroqueries</t>
+          <t>Des sites généralistes et des sites spécialisés</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'identité numérique en cause
-La rencontre par écrans interposés expose à des risques parfois tout nouveaux.
-Mensonges sur les profils déclarés
-Des travaux ont été menés sur la véracité des profils déclarés sur les sites de rencontres[209]. Ces études ont par exemple trouvé des différences dans le genre des personnes, les hommes mentant plus sur leur taille et les femmes sur leur poids[210]. L'équipe de modération est présentée par Gleeden comme « la plus intransigeante[211] ». Cependant, de nombreux profils faux ou fantaisistes sont présents sur le site, certains profils sont laissés à l'abandon parfois depuis 5 ans[212]. Gleeden revendique malgré tout une politique de « membres réels », avec derrière chaque profil, une personne réelle.
-Au-delà de l’observation de faux profils, des chercheurs se sont concentrés sur la façon dont les usagers de sites de rencontres effectuent leur présentation du soi dans un contexte plus ample d’interactions en ligne sous une politique générale d’inscription. En effet, l’obsession d’atteindre la véracité identitaire des utilisateurs d’un réseau peut rappeler « les valeurs de participation, d’authenticité, de transparence propres aux sociabilités ordinaires du Web que le fake est accusé de mettre en échec [et qui] sont autant de composant idéologiques d’une économie numérique dont les modèles d’affaires prédominants sont basés sur l’inscription, le traçage des usagers et la fouille de leurs données personnelles »[213]. Il faut néanmoins distinguer que les différentes stratégies du fake ne sont pas toujours de la même nature et qu’elles ne se déroulent pas de la même manière sur tous les espaces d’interaction en ligne.
-Si l’identité numérique possède un caractère performatif [214] dans la mesure où nous supposons que l’interlocuteur est celui qu’il revendique être, cette performativité acquiert une dimension très particulière dans certains sites de rencontres. Certes, les mensonges peuvent conduire à un risque dans l’éventualité d’une rencontre présentielle ou simplement blesser la crédulité des membres d’un site. Et pourtant, en s’éloignant de l’opposition entre vrai et faux, on peut constater quelques nuances sur l’idée de l’identité faussée.
-Tout d’abord, le contact présentiel n’est pas toujours le but principal de l’inscription sur une plateforme de rencontre, surtout chez les plus jeunes où il s’avère être plutôt pour un usage récréatif : « L’usage ne débouche pas toujours sur des rencontres de visu, qu’il n’a pas forcément pour objectif. On se connecte d’abord par curiosité et « pour voir », et une partie de jeunes s’en tiennent aussi à cette expérience éphémère ou occasionnelle des services[215] ».
-Ensuite, si la présentation de soi comporte dans la vie de tous les jours la mise en œuvre de stratégies rationnelles montrant ou cachant des expériences et des réactions selon la situation face à laquelle on se trouve, les interactions numériques n’y font pas exception. En l’occurrence, ceux qui trichent dans une application de rencontres en construisant plusieurs profils afin d’optimiser les leurs, gagnent en même temps une « marge de déplacement et d’interaction » face aux autres[213].
-Enfin, et particulièrement sur des sites de rencontres explicitement érotiques, la manipulation d’information concernant l’identité personnelle peut se rapporter intimement à certains fantasmes sexuels ou caractéristiques qui auraient un capital érotique important selon l’utilisateur et que, par conséquent, il tentera de représenter. Bien que les exemples soient nombreux, on peut évoquer comment un nombre de profils soulignent une appartenance ethnique, une provenance géographique ou une orientation sexuelle qui ne sont pas nécessairement affichées de la même manière hors ligne[216].
-Certains sites de rencontres pour ados sont infliltrés par des prédateurs sexuels (notamment des pédophiles) qui mentent sur leur identité ou leur âge[217],[218],[219].
-Escroquerie sentimentale
-Un problème très répandu pour ce qui concerne l’authenticité des utilisateurs inscrits réside dans les cas multiples de Romance Scam (aussi appelé prisonnière espagnole), une forme d’arnaque pour laquelle des groupes d’Africains (dit « brouteurs[220] ») se font passer pour des hommes d’affaires en envoyant des belles promesses d’amour à des femmes d’âge mûr sur les sites de rencontres. Ils leur demandent ensuite de leur envoyer de l’argent pour un cas d’urgence purement inventé. Suivant la déclaration officielle des dégâts que le FBI publie pour l’année 2011, les déclarations des citoyens américains s’élevaient à plus de 50 millions de dollars. À l’échelle internationale, les dommages sont chaque année estimés à plus de 100 millions d’euros[221],[222],[223].
-Des sites infiltrés par la prostitution
-Certains sites de rencontres, notamment érotiques, sont infiltrés par la prostitution[224].
-Animatrices de sites de rencontres
-Certains sites de rencontres reposent au moins en partie sur un modèle économique tout particulier : ils embauchent des « animatrices » (aussi appelées « hôtesses ») qui, par la création d'un faux profil, sont chargées de susciter l'intérêt suffisamment pour faire souscrire un abonnement et pour qu'il soit prolongé, ou encore que de nombreux appels à des numéros surtaxés soient effectués[225],[226] : Match.com[227], Cupid.com[228],[229], YesMessenger.com[230],[231], Adult FriendFinder.com[232] etc.
-Communication mensongère
-Mensonge sur le nombre d'inscrits
-Bon nombre d'« inscrits » sont souvent d'anciens membres, à qui le site a pris soin de ne pas demander la désinscription[233].
-Mensonge sur la parité hommes/femmes
-Bien que la plupart des sites de rencontres prétendent disposer d'autant de membres féminins que masculins, il y a en réalité parfois deux à trois fois plus d'hommes que de femmes[234]. En juillet 2015, un vaste piratage du site AshleyMadison.com a permis de se rendre compte que le chat était fréquenté par seulement 2 409 femmes contre 11 millions d'hommes, soit un rapport de 1 pour 5000[235].
-Carence en matière d'informations légales
-Mentions légales absentes
-Certains sites de rencontres ne respectent pas leurs obligations légales de fournir comme informations la raison sociale (avec l'identifiant SIRET en France, SNN aux États-Unis, NINO au Royaume-Uni etc.), l'adresse postale ainsi que le numéro de téléphone ou le email.
-Les conditions générales d'utilisation ne sont pas toujours transposées dans la législation dont dépend l'utilisateur[233] : les sociétés Badoo Trading Ltd[236] (Badoo.com) et Clooz &amp; Kolson Ltd[237] (HugAvenue.com) sont domiciliées à Chypre ; la société E-Tainment Ltd[238],[239] (Xflirt.com) est quant à elle domiciliée à Malte, tout comme la compagnie Together Networks (en)[240], qui exploite les sites appartenant à Cupid Plc (en) (BeCoquin.com, BeNaughty.com, Ulla.com, Cum.fr, Mytilene.fr, Flirt.com, ClickAndFlirt.com etc.)[241].
-Un droit de rétractation difficilement applicable
-En France, la loi permet, en matière de vente à distance, de se rétracter dans les sept jours qui suivent la souscription. Cela est soumis à la non-utilisation du service, une condition difficile à remplir pour un internaute qui accède dès son inscription aux profils des autres membres[233].
-Résiliation et tacite reconduction de l'abonnement
-En France, le code de la consommation (article L 136-1)[242] prévoit la reconduction tacite de l'abonnement lorsqu'il touche à sa fin. C'est donc au consommateur de faire expressément la demande de résiliation, qui plus est, cela dans le respect d'un délai de préavis qui peut aller de deux à sept jours selon les conditions générales d'utilisation. Les sites de rencontres n'avertissent pas toujours leurs clients de ses modalités de résiliation. Ils sont cependant tenus de prévenir leurs abonnés « au plus tôt trois mois et au plus tard un mois avant le terme de la période autorisant le rejet de la reconduction »[243]. D'après 60 Millions de consommateurs, il faut désactiver le renouvellement automatique dans l'espace attribué au compte utilisateur[233]. Certains sites basés à l'étranger, comme eDarling ou Be2, ont fait l'objet de réclamations auprès du Centre européen des consommateurs[244].
-Données personnelles malmenées
-Risque de perméabilité entre sites de rencontres et réseaux sociaux
-Les sites de rencontres, comme les réseaux sociaux tels que Facebook, Twitter, Google+ ou LinkedIn, souhaitent s'intégrer et s'imposer sur le Web. Pour ce faire, ils développent l'interopérabilité afin de créer des passerelles entre eux et d'autres sites disposant d'une base de données clients propice au développement commercial[245],[246]. Un site de rencontres comme Badoo ou Zoosk (en) va alors faire partie des nombreuses sollicitations sur lesquelles un internaute peut cliquer par inadvertance quand il visite son compte Facebook. C'est ainsi qu'un bon nombre de personnes se sont retrouvées malgré elles inscrites et référencées sur des sites de rencontres. Cela a pu nuire à l'e-réputation de certaines d'entre elles, comme un prêtre qui a dû renoncer à sa paroisse[247]. La désinscription n'est pas aisée. Plusieurs plaintes contre Badoo ont été déposées auprès de la CNIL[248].
-Des Canadiens qui s'étaient inscrits sur love2meet.com se sont retrouvés inscrits sur d'autres sites de rencontres appartenant à la même société Global Personals (en)[249]. Cette dernière n'est d'ailleurs pas forcément propriétaire des sites, mais y vend simplement ses services en marque blanche (en l'occurrence, par le biais de WhiteLabelDating (en))[250] ou en marque grise (« co-branding »)[251],[252].
-Fuites d'informations personnelles
-Le 13 janvier 2013, Cupid Media a confirmé que sa base de données de mot de passe avait été compromise et une partie des utilisateurs a été affectée. Les membres concernés ont été contactés par la société en leur demandant de changer leurs mot de passe et des mesures de sécurité supplémentaires ont également été mises en place[253].
+          <t>Sites de rencontres selon l'appartenance communautaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sites ont pour cible ceux qui recherchent spécifiquement un partenaire chrétien ou plus spécifiquement pour catholique, protestant, mormon/LDS, adventiste, Témoin de Jéhovah ; musulman, ou plus particulièrement chiite ; juif.
+Il existe par ailleurs des sites ciblés pour les personnes d'origine africaine, martiniquaise, d'origine asiatique, latino-américain, portugaise ou encore russe : dans ce dernier cas de figure, il convient de distinguer les sites pour rencontres entre Russes des sites destinés aux personnes non slaves recherchant une femme d'Europe de l'Est.
 </t>
         </is>
       </c>
@@ -742,21 +633,1787 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rencontre par affinités (matchmaking) suppose que deux personnes doivent partager des affinités si elles envisagent une relation sérieuse et durable. Si les sites de rencontres généralistes proposent parfois à ses membres une liste de célibataires a priori compatibles au vu de ce qu'ils ont rempli dans leur profil (ASV pour Age-Sexe-Ville, centres d'intérêts etc.), les sites de rencontres par affinités proposent une étude de compatibilité plus approfondie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par compatibilité psychologique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sites de rencontres par affinités appliquent ordinairement les théories sur la personnalité et sur la compatibilité des personnes (religion, culture, goûts, aspirations etc.) pour proposer des rencontres.
+Le service de matchmaking offre à ses clients des tests de la personnalité, parfois d'une centaine de pages, et suggère une liste de membres avec lesquels ils seraient susceptibles de former un couple harmonieux.
+Certains sites de rencontres s'appuient sur les travaux du psychologue allemand Hugo Schmale (de), ou encore de l'anthropologue américaine Helen Fisher. D'après cette dernière, il existerait schématiquement quatre types de personnalité : les aventuriers, les constructeurs, les dirigeants et les négociateurs. Selon les études menées par la scientifique, les couples susceptibles de bien fonctionner seraient les couples aventurier-aventurier, constructeur-constructeur et dirigeant-négociateur (ces deux profils se complétant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités politiques</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sites sont spécialisés pour les personnes de gauche, de droite ou écologistes. En Amérique du Nord, il existe également des sites de rencontres destinés aux libertariens, pour objectivistes, ou encore militants pro-Trump.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités musicales</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sites allient les attributs d'un service de musique en ligne et d'un site de rencontres,. Les utilisateurs peuvent identifier et contacter ceux qui écoutent les mêmes titres qu'eux. Y est également proposé un service de matchmaking : les inscrits peuvent recevoir une liste de célibataires avec le pourcentage de compatibilité calculée en fonction des musiques sélectionnées.
+Dans la communauté francophone occidentale (France, Benelux, Suisse et Québec), d'autres sites se démarquent également, proposant des rencontres interactives entre passionnés d'un même style musical ou vestimentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sites de rencontres selon l'état d'esprit</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des sites de rencontres spécialisés par sous-culture ou centre d'intérêt : rockers, metalleux, punks, gothiques ou emos clubbers, hipsters, tatoués, hippies, yuppies geeks, végétariens naturistes, curieux amateurs d'équitation, de golf, de fitness, de lecture, motards cyclistes, joueurs de jeu vidéo, ou encore amoureux des bêtes. Ce dernIer type est à distinguer des sites de rencontres pour animaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sites de rencontres selon la compatibilité génétique</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces sites, utilisent l'ADN pour proposer des rencontres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sites de rencontres selon la compatibilité astrale</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit des sites de rencontres qui fondent la mise en relation des partenaires sur l'astrologie occidentale, chinoise ou tibétaine. Ces sites ont peut-être eu du succès à leur début, mais aujourd'hui, la majorité a disparu ou ils sont très peu visités et entretenus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sites de rencontres par affinités</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sites de rencontres selon le niveau d'influence personnelle en ligne</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un site américain , fonde quant à lui son matchmaking sur le « score Klout », un indicateur de l'influence d'une personne sur les réseaux sociaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres selon la situation sociale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Situation professionnelle</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des sites de rencontres par profession, par exemple pour les marins, policiers ou militaires, pompiers, personnel navigant commercial (PNC), professionnels de santé, enseignants, agriculteurs et fermiers, qu'ils soient cultivateurs ou éleveurs, comme les vachers et les cow-boys,.
+Certains sites s'adressent aux étudiants et aux anciens élèves d'universités.
+Il existe des sites qui permettent d'entretenir une correspondance avec une personne en prison,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres selon la situation sociale</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Niveau social</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sites de rencontres destinés aux diplômés de l’enseignement supérieur ; ou exclusivement des grandes écoles ; aux riches et aux canons  où sont mis en relation des femmes attrayantes avec des hommes gagnant plus de 100 000 € par an. Aux États-Unis, un site s'adresse aux personnes très aisées et dit « compter parmi ses membres des PDG, des athlètes de premier niveau, des docteurs, des avocats, des investisseurs, des entrepreneurs, des reines de beauté, des fitness models et des célébrités hollywoodiennes » ; aux femmes qui recherchent une sécurité financière : un site « interdit l'inscription aux hommes gagnant moins de 2000 € (fiche de payes et avis d'imposition à l'appui) et où c'est aux femmes de payer l'abonnement ».
+Il convient de bien distinguer les sites de rencontres élitistes des sites d'agences matrimoniales élitistes ainsi que des sites de réseautage social élitistes.
+Il convient également de discerner les sites de rencontres élitistes des sites de rencontres « haut de gamme ». Sur ces sites, où par ailleurs l'inscription fonctionne par cooptation, la sélection à l'entrée porte moins sur la situation sociale que sur le sérieux des célibataires dans leur démarche de recherche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres selon la situation sociale</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Statut conjugal</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si les sites généralistes sont destinés aux célibataires, d'autres sont destinés aux personnes mariées divorcées avec enfants ou veuves.
+Certains sites de rencontres sont par ailleurs destinés aux polyamoureux ou aux polygames (voir également les sites de rencontres pour Musulmans ou Mormons).
+La volonté de se marier et/ou de fonder une famille est mis en avant principalement sur les sites de rencontres spécialisés par communauté religieuse, voire par caste (en Inde). Le mariage est cependant également mis en avant sur des sites de rencontre avec une femme d'Europe de l'Est ou sur des sites de rencontres chinois. Notons en outre que certains sites s'adresse en Inde à ceux qui veulent se marier sans passer par le système de dot.
+Certains sites sont destinés aux « sans enfant par choix ».
+Il existe aussi des sites de rencontres adressés aux personnes à la recherche d'un donneur de spermes/d’ovocyte (voir coparentalité, homoparentalité).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres selon la sexualité</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux sites se spécialisent dans un certain type de sexualité. Il en existe selon le type d’attirance (LGBT bears, chubs, asexuels, platoniques) ou le type de pratique sexuelle (libertinage : échangisme, mélangisme ou triolisme, etc ; BDSM ou fétichistes, jusqu’au fétichisme des couches aux États-Unis).
+La différence d’âge entre les partenaires potentiels est également un critère : il existe des sites pour femmes cougars ou pour leurs équivalents homme.
+Des sites dédiés aux rencontres tarifées non professionnelles existent notamment en France, et aux États-Unis. On parle de « sugar baby » pour les personnes qui offrent ce type de service à des hommes, qui eux sont désignés sous le terme de « sugar daddy ». Les hommes qui offrent ce type de service à des femmes sont des gigolos, et celles-ci sont des « sugar mama ».
+Les différents types de critères peuvent également se combiner : il existe par exemple des sites pour femmes cougars lesbiennes et d’autres pour sugar daddies gays ou sugar mamas lesbiennes.
+Il existe également en France des sites pour machistes, et d’autres pour personnes pucelles. Enfin, il existe des sites féministes, comme Bumble, ou AdopteUnMec.com en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres sur le critère physique</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des sites spécialisés, que l'on soit beau ; laid ; maigre ; gros ; BBW ; BBW &amp; BHM ; SSBBW ; petit ; grand ; poilu.
+Aux États-Unis et au Royaume-Uni, un site s'adresse à ceux qui ont un pénis de plus de 17,5 cm,.
+Un autre site de rencontres propose quant à lui de trouver le sosie de son ex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres pour personnes souffrant d'une maladie ou d'un handicap</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sites sont spécialisés dans les rencontres pour les personnes porteuses d'une MST.
+D'autres sites sont destinés aux personnes handicapées, paraplégiques, amputées, sourds et malentendants, personnes souffrant d'allergies.
+Il existe également des sites de rencontres destinées aux personnes souffrant de troubles mentaux, comme la schizophrénie, le trouble bipolaire, les troubles obsessionnels compulsifs (TOC), les troubles de la personnalité, les troubles de stress post-traumatique (TSPT), les troubles dissociatifs ou les troubles des comportements alimentaires (TCA), l'autisme, le syndrome d'Asperger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par tranche d'âge</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des sites sont spécialisés dans les rencontres pour adolescents d'autres pour seniors.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par région géographique</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sites se spécialisent par région géographique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sites de rencontres se différencient selon le mode de rencontre auquel ils invitent les utilisateurs. Il peut y avoir comme préalable à la rencontre une première prise de contact en ligne (online dating, mobile dating, sites de rencontres épistolaires, card dating, virtual darting) ou pas (slow dating, group dating, speed dating, blind dating). La fixation du rendez-vous peut-être directe (online dating classique, mobile dating) ou intermédiée (rencontre coachée, online matchmaking, speed dating, blind dating, slow dating, group dating, charity dating). D’autres sites se spécialisent par région géographique. Un site américain s'adresse ainsi à ceux qui souhaitent faire des rencontres à l'aéroport.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Online dating classique</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son acception la plus répandue, le site de rencontre renvoie à l’online dating : sur son ordinateur, l'utilisateur inscrit sur le site recherche des profils susceptibles de lui plaire, établit un premier contact, qui, s'il est concluant, débouche sur la fixation d'un rendez-vous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mobile dating</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le développement du Web participatif dans les années 2000, c'est l'essor du Web mobile dans les années 2010 qui est venu stimuler le marché de la rencontre. Les sites de rencontres traditionnels proposent une version mobile de leur plateforme ou une application à télécharger, à l'instar des nouveaux acteurs exclusivement sur smartphone (sportifs). Le mobile dating offre comme fonctionnalité l'échange de messages instantanés et de photos mais aussi et surtout la géolocalisation (en) afin que les célibataires à proximité puissent se mettre en relation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Online matchmaking</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la différence d'un site de rencontre classique, un service de matchmaking est proposé en France : les utilisateurs répondent à un questionnaire et se voient proposer un ensemble de profils supposés leur correspondre. Ces sites de rencontres par affinité se distinguent des sites d'agence matrimoniale, où cette dernière prend le soin de rencontrer chacun des célibataires avant de les mettre en relation. Notons néanmoins que la distinction n'est pas toujours évidente : sur le site de rencontres américain Tawkify.com, les inscrits ne peuvent pas communiquer directement : c'est le site qui les met en relation en fonction d'affinités supposées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Rencontre coachée</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les utilisateurs de sites de rencontres peuvent faire appel aux services d'un « dating assistant (en) » PersonalDatingAssistants.com : les services proposés vont de l'identification du site de rencontres où s'inscrire à l'obtention de rendez-vous en passant par la gestion du profil : choix du pseudo, réalisation et sélection des photos, rédaction du message d'accroche et de l'annonce etc. Aux États-Unis, un site de rencontres permet de contrôler si la personne rencontrée a un casier judiciaire.
+Au Royaume-Uni, le site MySingleFriend.com (en), permet que la rencontre coachée soit initiée par un proche (parent, ami, collègue) du célibataire.
+Par ailleurs, les sites comme QuoiMaGueule.com, permettent aux internautes de soumettre leurs photos à la notation des visiteurs. Une étude menée par le Journal of Business and Psychology montre que la photo est déterminante dans l'évaluation de la personne : l'« effet de halo » désigne l'attribution de qualités à quelqu'un seulement sur la base de son apparence physique. S'appuyant sur un échantillon statistique de plusieurs millions d'utilisateurs, Christian Rudder, cofondateur du site OKCupid.com, met en avant que les profils ayant le plus de succès sont ceux dont la photo a été réalisée à l'aide d'un appareil professionnel, sans flash, avec une faible profondeur de champ et au lever ou au coucher du soleil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Speed dating</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le speed dating consiste à faire se rencontrer des personnes préalablement sélectionnées selon des critères spécifiques pour une durée courte, typiquement sept rendez-vous de sept minutes chacun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Blind dating</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agence organise une « rencontre à l'aveugle » : les protagonistes, présélectionnés selon leur compatibilité supposée, ne se connaissent pas. Les rencontres de ce type peuvent avoir lieu en groupe, autour d'un repas par exemple (aux États-Unis, 8at8.com organise des dîners pour quatre femmes et quatre hommes partageant des points communs).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Group dating</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sites au Royaume-Uni, en France et en Italie sont spécialisés dans le group dating, une rencontre à l'aveugle entre groupes de célibataires. Ce mode de rencontre, particulièrement développé au Japon, s'apparente à un mélange de blind dating (rencontre entre célibataires) et de slow dating (sortie en groupe).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Virtual dating</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le modèle des univers virtuels destinés aux joueurs de jeu vidéo, des applications permettent aux célibataires de s'incarner dans un avatar et de « se rencontrer » dans un espace virtuel. Le professeur Michael I. Norton a affirmé au cours des années 2000 que la rencontre virtuelle pourrait apporter un plus dans l'évaluation de sa compatibilité avec l'autre. En France, citons par exemple l'application Come in My World d'Orange, présentée comme un mélange du site de rencontres Meetic et du métavers Second Life,. Mentionnons par ailleurs certains sites de jeux de rencontres (« dating simulations ») qui revendiquent offrir à leurs joueurs la possibilité de faire des rencontres réelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Une carte pour un rendez-vous</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des sites comme Cheek'd (en) et FlipMe (en) aux États-Unis fournissent à l'abonné un ensemble de petites cartes noires qu'il passe ou fait passer à l'élu de son cœur en soirée, dans un café, au restaurant où dans les transports en commun. Cette personne, à l'aide de l'identifiant inscrit sur la carte, va pouvoir consulter en ligne le message qui lui est adressé (invitation à un rendez-vous, déclaration). Ce mode d'approche présente l'avantage pour l'abonné de ne pas être cantonné dans ses choix aux personnes inscrites sur le site de rencontres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Charity dating</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le modèle du charity dating (en) où une célébrité vend aux enchères caritatives une rencontre avec elle le site biélorusse Maesens (ru) permet de vendre un rendez-vous au plus offrant ; l'argent récolté est ensuite reversé à des associations caritatives,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Des sites généralistes et des sites spécialisés</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Les sites de rencontres par mode ou lieu de rencontre</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Slow dating</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On[Qui ?] peut préférer prendre le temps de se rencontrer en face-à-face plutôt que derrière un ordinateur. Le « slow dating » est un rétronyme utilisé pour désigner le mode de rencontre auquel invitent les sites proposant d'organiser et/ou de participer à des sorties, événements, activités en groupe, qu'il s'agisse d'activités culturelles, sportives ou de loisirs. Les « sites de slow dating » peuvent être généralistes (toutes sorties confondues) ou spécialisés dans un type de sortie/activité (sport, restaurant voyage etc.) ; de plus, ils peuvent être orientés rencontres amicales (comme OnVaSortir.com) ou orientés rencontres amoureuses. Ce mode de rencontre est proposée également par des applications comme Once.
+OnVaSortir.com (OVS) se présente comme « le site des sorties amicales et rencontres entre amis dans votre ville ». Avec un grand nombre de types de sortie proposée (exposition, concert, théâtre, randonnée, sport restaurant, soirée dansante, karaoké, café philo etc.), OVS est le leader des sites de sorties amicales en France, devant MeetUp.com (qui permet également d'organiser des rencontres professionnelles). Le leader aux États-Unis est MeetUp.com.
+Les sites de sorties peuvent par ailleurs être orientés rencontres amoureuses; certains sites au Royaume-Uni ou aux États-Unis permettent aux célibataires de se rencontrer à partir d’une envie de sortie commune.
+À partir des années 2000 se sont développés les sites spécialisés dans le « service d'hébergement », aussi appelé « échange d'hospitalité » : CouchSurfing.org BeWelcome.org, Servas.org. Certains mettent l'accent sur les échanges interculturels : HospitalityClub.org et FriendShipForce.org tandis que d'autres sont spécialisés pour les familles, mais aussi pour les cyclistes ou les espérantophones. D'autres sites permettent aux touristes de travailler en échange du gîte et du couvert. Généralement le bénévolat s'effectue dans les fermes, on parle alors de WWoofing.
+La rencontre d'inconnus par ces sites implique une exposition à des dangers plus ou moins importants.
+Pratique de langues étrangères
+Un site d'échange linguistique permet de trouver des correspondants pour s'améliorer en langues étrangères et trouver de nouveaux amis. On peut s'y inscrire également pour participer à des soirées polyglottes. Un autre site s'adresse quant à lui à tous ceux à la recherche de nouvelles rencontres dans le monde entier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Histoire par pays</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Match.com, le pionnier de la rencontre en ligne, voit le jour en 1995. Il rachète NetClub.fr en 2007 puis Meetic en 2011 et est aujourd'hui le leader du marché dans le monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Histoire par pays</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marché de la rencontre entre célibataires a été marqué par le développement d'un bon nombre d'agences matrimoniales dès le début du XIXe siècle. Dans les années 1960, d'autres modes de rencontres ont parallèlement gagné leurs lettres de noblesse : il s'agit des petites annonces. Les plus notoires étaient celles du Chasseur Français. Le Minitel au début des années 1980 donna les prémices de ce que sont aujourd'hui les sites de rencontres sur Internet, média qui a commencé à être utilisé par le grand public à partir de 1994,.
+Le pionnier des sites de rencontres sentimentales et érotiques en France est NetClub.fr, fondé en 1997, suivi par Amoureux.com, fondé en 1998. La même année, deux acteurs majeurs du minitel rose se transposent sur le Web : Cum et Ulla.
+Il faudra néanmoins attendre les années 2000, marquées par l'avènement du Web 2.0, pour que les sites de rencontres fassent leur percée dans la vie des Français.
+En 2001, deux sites généralistes voient le jour : EasyFlirt.fr, mais aussi et surtout Meetic.fr, qui, à coup d'investissements publicitaires massifs et de partenariats dans toute l'Europe, va dominer le marché sur tout le continent et entrer en bourse quatre ans après sa création.
+La seconde moitié des années 2000 est marquée par deux tendances : d'une part, l'essor des « sites de rencontres par affinités » (matchmaking) : Be2.fr et PointsCommuns.com en 2004, l'allemand Parship.fr en 2005, AttractiveWorld.com en 2007, Meetic Affinity en 2008, l'allemand eDarling en 2009 ; d'autre part, l'essor des sites communautaires : Theotokos.fr et Mektoube.fr en 2006, Blacklub en 2007, JDate en 2008, InChallah.com en 2010 ou encore GeekMeMore.com en 2011.
+Une nouvelle tendance se dessine au début des années 2010 : à la suite du succès du site de sorties en groupe OnVaSortir!, certains sites de rencontres se sont lancés dans l'organisation de sorties entre célibataires (parfois appelée slow dating), : Meetic.fr, qui a d'ailleurs racheté PastasParty.com en 2013, MeetSerious.com (2012) ou encore Bœuf-Lovers.com (2013).
+En outre, parallèlement au développement des sites de rencontres payants (Meetic.fr, AdopteUnMec.com, eDarling.fr), se sont multipliés les « sites de rencontres gratuits ».
+De plus, dès le début du développement des sites de rencontres amoureuses se sont multipliés les sites de rencontres érotiques : Adult FriendFinder (en) ou Gleeden.com pour les sites adultères.
+En 2014, les 18 millions de célibataires français recensés par l'INSEE sont la cible de plus de 2 000 sites de rencontres généralistes ou spécialisés sur un marché estimé à environ 200 millions de chiffre d'affaires,.
+Pour Daphné Marnat et Barbara Cassin, « l'existence et le succès des sites de rencontres reflètent une société de solitaires, seuls face à la constitution de leur réseau social et amoureux, vivant dans un espace temps limité où l'efficacité règne en maître : pas de temps à consacrer à une drague hasardeuse dans des bars devenus trop chers. Pas envie de se prendre une claque ou un vent, d'ailleurs on a même perdu l'habitude de regarder autour de soi : « J'ai découvert mon voisin sur CelibParis, et vous ? » (slogan-affichage dans le métro de celibparis.com). Ces sites montrent combien la consommation a pénétré les sphères les plus intimes : les rapports aux autres, avec la nécessité de se constituer immédiatement un cercle de relations important dès que l'on arrive quelque part, et le rapport à l'autre, avec le couple comme deux partenaires de consommation qui s'associent sur des loisirs partagés. Et quand on va jusqu'au bout, avec un cynisme de bon ton, on affiche que l'autre est un objet de consommation, mais en tenant compte de l'époque qui a renversé les rôles puisque c'est la femme qui est devenue le client, voire le prédateur : « au supermarché des rencontres, les femmes font de bonnes affaires » dit AdopteUnMec.com ».
+Une enquête IFOP révèle qu'en 2018, 26 % des Français déclarent s’être déjà inscrits au moins une fois sur un site de rencontre ; contrairement à ce que la plupart des sites présentent dans leurs publicités, il reste encore difficile de rencontrer quelqu’un en vrai via ce genre de sites (seulement 57 % des sondés déclarent y être parvenus) ; la réalisation de rencontres amoureuses (20 % déclarent avoir eu à la fois des relations amoureuses et sexuelles) n’empêche pas pour autant une certaine banalisation des « coups d’un soir » (62 % déclarent avoir eu « une aventure sans lendemain »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>L'identité numérique en cause</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rencontre par écrans interposés expose à des risques parfois tout nouveaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>L'identité numérique en cause</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Mensonges sur les profils déclarés</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des travaux ont été menés sur la véracité des profils déclarés sur les sites de rencontres. Ces études ont par exemple trouvé des différences dans le genre des personnes, les hommes mentant plus sur leur taille et les femmes sur leur poids. L'équipe de modération est présentée par Gleeden comme « la plus intransigeante ». Cependant, de nombreux profils faux ou fantaisistes sont présents sur le site, certains profils sont laissés à l'abandon parfois depuis 5 ans. Gleeden revendique malgré tout une politique de « membres réels », avec derrière chaque profil, une personne réelle.
+Au-delà de l’observation de faux profils, des chercheurs se sont concentrés sur la façon dont les usagers de sites de rencontres effectuent leur présentation du soi dans un contexte plus ample d’interactions en ligne sous une politique générale d’inscription. En effet, l’obsession d’atteindre la véracité identitaire des utilisateurs d’un réseau peut rappeler « les valeurs de participation, d’authenticité, de transparence propres aux sociabilités ordinaires du Web que le fake est accusé de mettre en échec [et qui] sont autant de composant idéologiques d’une économie numérique dont les modèles d’affaires prédominants sont basés sur l’inscription, le traçage des usagers et la fouille de leurs données personnelles ». Il faut néanmoins distinguer que les différentes stratégies du fake ne sont pas toujours de la même nature et qu’elles ne se déroulent pas de la même manière sur tous les espaces d’interaction en ligne.
+Si l’identité numérique possède un caractère performatif  dans la mesure où nous supposons que l’interlocuteur est celui qu’il revendique être, cette performativité acquiert une dimension très particulière dans certains sites de rencontres. Certes, les mensonges peuvent conduire à un risque dans l’éventualité d’une rencontre présentielle ou simplement blesser la crédulité des membres d’un site. Et pourtant, en s’éloignant de l’opposition entre vrai et faux, on peut constater quelques nuances sur l’idée de l’identité faussée.
+Tout d’abord, le contact présentiel n’est pas toujours le but principal de l’inscription sur une plateforme de rencontre, surtout chez les plus jeunes où il s’avère être plutôt pour un usage récréatif : « L’usage ne débouche pas toujours sur des rencontres de visu, qu’il n’a pas forcément pour objectif. On se connecte d’abord par curiosité et « pour voir », et une partie de jeunes s’en tiennent aussi à cette expérience éphémère ou occasionnelle des services ».
+Ensuite, si la présentation de soi comporte dans la vie de tous les jours la mise en œuvre de stratégies rationnelles montrant ou cachant des expériences et des réactions selon la situation face à laquelle on se trouve, les interactions numériques n’y font pas exception. En l’occurrence, ceux qui trichent dans une application de rencontres en construisant plusieurs profils afin d’optimiser les leurs, gagnent en même temps une « marge de déplacement et d’interaction » face aux autres.
+Enfin, et particulièrement sur des sites de rencontres explicitement érotiques, la manipulation d’information concernant l’identité personnelle peut se rapporter intimement à certains fantasmes sexuels ou caractéristiques qui auraient un capital érotique important selon l’utilisateur et que, par conséquent, il tentera de représenter. Bien que les exemples soient nombreux, on peut évoquer comment un nombre de profils soulignent une appartenance ethnique, une provenance géographique ou une orientation sexuelle qui ne sont pas nécessairement affichées de la même manière hors ligne.
+Certains sites de rencontres pour ados sont infliltrés par des prédateurs sexuels (notamment des pédophiles) qui mentent sur leur identité ou leur âge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>L'identité numérique en cause</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Escroquerie sentimentale</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un problème très répandu pour ce qui concerne l’authenticité des utilisateurs inscrits réside dans les cas multiples de Romance Scam (aussi appelé prisonnière espagnole), une forme d’arnaque pour laquelle des groupes d’Africains (dit « brouteurs ») se font passer pour des hommes d’affaires en envoyant des belles promesses d’amour à des femmes d’âge mûr sur les sites de rencontres. Ils leur demandent ensuite de leur envoyer de l’argent pour un cas d’urgence purement inventé. Suivant la déclaration officielle des dégâts que le FBI publie pour l’année 2011, les déclarations des citoyens américains s’élevaient à plus de 50 millions de dollars. À l’échelle internationale, les dommages sont chaque année estimés à plus de 100 millions d’euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>L'identité numérique en cause</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Des sites infiltrés par la prostitution</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sites de rencontres, notamment érotiques, sont infiltrés par la prostitution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>L'identité numérique en cause</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Animatrices de sites de rencontres</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sites de rencontres reposent au moins en partie sur un modèle économique tout particulier : ils embauchent des « animatrices » (aussi appelées « hôtesses ») qui, par la création d'un faux profil, sont chargées de susciter l'intérêt suffisamment pour faire souscrire un abonnement et pour qu'il soit prolongé, ou encore que de nombreux appels à des numéros surtaxés soient effectués, : Match.com, Cupid.com YesMessenger.com Adult FriendFinder.com etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Communication mensongère</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Mensonge sur le nombre d'inscrits</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bon nombre d'« inscrits » sont souvent d'anciens membres, à qui le site a pris soin de ne pas demander la désinscription.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Communication mensongère</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Mensonge sur la parité hommes/femmes</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la plupart des sites de rencontres prétendent disposer d'autant de membres féminins que masculins, il y a en réalité parfois deux à trois fois plus d'hommes que de femmes. En juillet 2015, un vaste piratage du site AshleyMadison.com a permis de se rendre compte que le chat était fréquenté par seulement 2 409 femmes contre 11 millions d'hommes, soit un rapport de 1 pour 5000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Carence en matière d'informations légales</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Mentions légales absentes</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sites de rencontres ne respectent pas leurs obligations légales de fournir comme informations la raison sociale (avec l'identifiant SIRET en France, SNN aux États-Unis, NINO au Royaume-Uni etc.), l'adresse postale ainsi que le numéro de téléphone ou le email.
+Les conditions générales d'utilisation ne sont pas toujours transposées dans la législation dont dépend l'utilisateur : les sociétés Badoo Trading Ltd (Badoo.com) et Clooz &amp; Kolson Ltd (HugAvenue.com) sont domiciliées à Chypre ; la société E-Tainment Ltd, (Xflirt.com) est quant à elle domiciliée à Malte, tout comme la compagnie Together Networks (en), qui exploite les sites appartenant à Cupid Plc (en) (BeCoquin.com, BeNaughty.com, Ulla.com, Cum.fr, Mytilene.fr, Flirt.com, ClickAndFlirt.com etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Carence en matière d'informations légales</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Un droit de rétractation difficilement applicable</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la loi permet, en matière de vente à distance, de se rétracter dans les sept jours qui suivent la souscription. Cela est soumis à la non-utilisation du service, une condition difficile à remplir pour un internaute qui accède dès son inscription aux profils des autres membres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Carence en matière d'informations légales</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Résiliation et tacite reconduction de l'abonnement</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le code de la consommation (article L 136-1) prévoit la reconduction tacite de l'abonnement lorsqu'il touche à sa fin. C'est donc au consommateur de faire expressément la demande de résiliation, qui plus est, cela dans le respect d'un délai de préavis qui peut aller de deux à sept jours selon les conditions générales d'utilisation. Les sites de rencontres n'avertissent pas toujours leurs clients de ses modalités de résiliation. Ils sont cependant tenus de prévenir leurs abonnés « au plus tôt trois mois et au plus tard un mois avant le terme de la période autorisant le rejet de la reconduction ». D'après 60 Millions de consommateurs, il faut désactiver le renouvellement automatique dans l'espace attribué au compte utilisateur. Certains sites basés à l'étranger, comme eDarling ou Be2, ont fait l'objet de réclamations auprès du Centre européen des consommateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Données personnelles malmenées</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Risque de perméabilité entre sites de rencontres et réseaux sociaux</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sites de rencontres, comme les réseaux sociaux tels que Facebook, Twitter, Google+ ou LinkedIn, souhaitent s'intégrer et s'imposer sur le Web. Pour ce faire, ils développent l'interopérabilité afin de créer des passerelles entre eux et d'autres sites disposant d'une base de données clients propice au développement commercial,. Un site de rencontres comme Badoo ou Zoosk (en) va alors faire partie des nombreuses sollicitations sur lesquelles un internaute peut cliquer par inadvertance quand il visite son compte Facebook. C'est ainsi qu'un bon nombre de personnes se sont retrouvées malgré elles inscrites et référencées sur des sites de rencontres. Cela a pu nuire à l'e-réputation de certaines d'entre elles, comme un prêtre qui a dû renoncer à sa paroisse. La désinscription n'est pas aisée. Plusieurs plaintes contre Badoo ont été déposées auprès de la CNIL.
+Des Canadiens qui s'étaient inscrits sur love2meet.com se sont retrouvés inscrits sur d'autres sites de rencontres appartenant à la même société Global Personals (en). Cette dernière n'est d'ailleurs pas forcément propriétaire des sites, mais y vend simplement ses services en marque blanche (en l'occurrence, par le biais de WhiteLabelDating (en)) ou en marque grise (« co-branding »),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Abus et escroqueries</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Données personnelles malmenées</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Fuites d'informations personnelles</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 janvier 2013, Cupid Media a confirmé que sa base de données de mot de passe avait été compromise et une partie des utilisateurs a été affectée. Les membres concernés ont été contactés par la société en leur demandant de changer leurs mot de passe et des mesures de sécurité supplémentaires ont également été mises en place.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au cinéma
-Vous avez un message, avec Tom Hanks, réalisé par Nora Ephron en 1998.
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Vous avez un message, avec Tom Hanks, réalisé par Nora Ephron en 1998.
 La Main au collier, réalisé par Gary David Goldberg en 2005.
 À la recherche de l'homme parfait, réalisé par Michael Lehmann en 2007.
 Sex Drive, réalisé par Sean Anders en 2008.
 Catfish, réalisé par Henry Joost en 2010.
 Chercher le garçon, réalisé par Dorothée Sebbagh en 2012.
-Coup de foudre garanti, réalisé par Mark Steven en 2020.
-En littérature
-Pour écrire son roman Clic Party !, Bernadette Herman s'est inscrite à six « sites de rencontre[254] ».</t>
+Coup de foudre garanti, réalisé par Mark Steven en 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Site_de_rencontres</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>En littérature</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Pour écrire son roman Clic Party !, Bernadette Herman s'est inscrite à six « sites de rencontre ».</t>
         </is>
       </c>
     </row>
